--- a/education/EducationPlan.xlsx
+++ b/education/EducationPlan.xlsx
@@ -14,21 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>天津股轩资产管理有限公司</t>
   </si>
   <si>
-    <t>项目名称:</t>
-  </si>
-  <si>
-    <t>公司名称:</t>
+    <t>项目名称:安捷培训系统</t>
+  </si>
+  <si>
+    <t>公司名称:天津安捷公共设施服务有限公司</t>
   </si>
   <si>
     <t>策划人:杨皓程/核准人:苏鹏</t>
   </si>
   <si>
     <t>提交日期:2018-04-18</t>
+  </si>
+  <si>
+    <t>前台设计</t>
+  </si>
+  <si>
+    <t>序号
+Number</t>
   </si>
   <si>
     <t>项目
@@ -37,19 +44,59 @@
   <si>
     <t>功能定义
 Function definition</t>
+  </si>
+  <si>
+    <t>单价
+Unit Price</t>
+  </si>
+  <si>
+    <t>数量
+Quantity</t>
+  </si>
+  <si>
+    <t>金额(RMB)
+Amount</t>
+  </si>
+  <si>
+    <t>首页视觉原创设计</t>
+  </si>
+  <si>
+    <t>网站首页视觉设计     [不包含Flash和视频制作]   
+a. 企业VI视觉整体分析
+b. 企业LOGO配色分析
+c. 配色方案整合
+d. 视觉总体构架
+e. 功能流程设计
+f. 构架所有功能的结构方式
+g. 后台管理端功能流程设计及页面布局</t>
+  </si>
+  <si>
+    <t>分类页视觉设计[菜单级]</t>
+  </si>
+  <si>
+    <t>网站栏目页视觉设计  [不包含Flash和视频制作]
+a. 栏目页视觉设计
+b. 栏目页功能设计</t>
+  </si>
+  <si>
+    <t>小计:</t>
+  </si>
+  <si>
+    <t>前端制作</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +105,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF002060"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -67,7 +168,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,28 +183,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,9 +197,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,83 +281,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,192 +298,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -405,37 +504,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,17 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,7 +593,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +627,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,142 +673,214 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -978,44 +1201,205 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
+    <col min="4" max="6" width="14.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="60" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" ht="18" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
-    <row r="6" ht="54" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="5" ht="18" customHeight="1" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" ht="30" spans="1:6">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="132" spans="1:6">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="18">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17">
+        <f>D8*E8</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" ht="49.5" spans="1:6">
+      <c r="A9" s="19">
+        <v>2</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>5</v>
+      </c>
+      <c r="F9" s="17">
+        <f>D9*E9</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/education/EducationPlan.xlsx
+++ b/education/EducationPlan.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Code/anjie/education/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>天津股轩资产管理有限公司</t>
   </si>
@@ -181,6 +168,11 @@
     <t>账号管理</t>
   </si>
   <si>
+    <t>为了方便学员快速浏览到学习内容登录方式可选择以下第三方登录:
+a. 微信
+b.  安捷运营助手</t>
+  </si>
+  <si>
     <t>用户管理</t>
   </si>
   <si>
@@ -207,6 +199,9 @@
 c. 讲师专区建立</t>
   </si>
   <si>
+    <t>单个视频4G</t>
+  </si>
+  <si>
     <t>知识管理</t>
   </si>
   <si>
@@ -216,7 +211,16 @@
 d. 支持视频加密转码,权限分配灵活</t>
   </si>
   <si>
+    <t>文配图,小视频,动图</t>
+  </si>
+  <si>
     <t>考试中心</t>
+  </si>
+  <si>
+    <t>a. 题库创建
+b. 问答形式,支持打乱题序、打乱题目、时间限制等多种形式，多终端融合答题机制
+c. 统计分析
+d. 裁判角色 线下考试成绩录入</t>
   </si>
   <si>
     <t>在线考试</t>
@@ -276,93 +280,24 @@
     <t>全终端信息传输使用HTTPS协议、用户信息全加密存储</t>
   </si>
   <si>
+    <t>直播(二)</t>
+  </si>
+  <si>
     <t>总计:</t>
-  </si>
-  <si>
-    <t>直播(二)</t>
-    <rPh sb="0" eb="1">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>bo</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>er</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>a. 题库创建
-b. 问答形式,支持打乱题序、打乱题目、时间限制等多种形式，多终端融合答题机制
-c. 统计分析
-d. 裁判角色 线下考试成绩录入</t>
-    <rPh sb="59" eb="60">
-      <t>cai'pan</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>jue'se</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>xian'xia</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>kao'shi</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>cheng'ji</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>lu'ru</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了方便学员快速浏览到学习内容登录方式可选择以下第三方登录:
-a. 微信
-b.  安捷运营助手</t>
-    <rPh sb="41" eb="42">
-      <t>an'jie</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>yun'ying</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>zhu'shou</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个视频4G</t>
-    <rPh sb="0" eb="1">
-      <t>dan'ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'pin</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>文配图,小视频,动图</t>
-    <rPh sb="0" eb="1">
-      <t>wen'pei'tu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiao'shi'pin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dong'tu</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +306,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -417,6 +359,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -424,29 +373,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,13 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,8 +548,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -501,108 +758,394 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -864,796 +1407,796 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="170" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="32.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="6" width="14.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="60" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" ht="28.5" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="112" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" ht="114" spans="1:6">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>10000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="12">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="11">
         <f>D8*E8</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+    <row r="9" ht="42.75" spans="1:6">
+      <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>10000</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="13">
         <v>5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="11">
         <f>D9*E9</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+    <row r="10" ht="42.75" spans="1:6">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>6000</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="13">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <f>D10*E10</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="11" t="s">
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="15">
         <f>SUM(F8:F10)</f>
         <v>130000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+    <row r="12" ht="18" customHeight="1" spans="1:6">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="17">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
         <f>D14*E14</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+    <row r="15" ht="14.25" spans="1:6">
+      <c r="A15" s="9">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="17">
         <v>20000</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17">
         <f>D15*E15</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16" s="9">
         <v>3</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="17">
         <v>30000</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
         <f>D16*E16</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+    <row r="17" ht="14.25" spans="1:6">
+      <c r="A17" s="9">
         <v>4</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="17">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
         <f>D17*E17</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="11" t="s">
+    <row r="18" ht="14.25" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="15">
         <f>SUM(F14:F17)</f>
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+    <row r="19" ht="18" customHeight="1" spans="1:6">
+      <c r="A19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:6">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="98" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
-        <v>1</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" ht="99.75" spans="1:6">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="17">
+        <v>30000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" ref="F21:F27" si="0">D21*E21</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" ht="71.25" spans="1:6">
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="17">
+        <v>40000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:6">
+      <c r="A23" s="9">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="17">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="42.75" spans="1:6">
+      <c r="A24" s="21">
+        <v>4</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="23">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" ht="85.5" spans="1:6">
+      <c r="A25" s="9">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30000</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="26" ht="57" spans="1:6">
+      <c r="A26" s="9">
+        <v>6</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="17">
+        <v>30000</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="27" ht="99.75" spans="1:6">
+      <c r="A27" s="9">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="17">
         <v>20000</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" ref="F21:F27" si="0">D21*E21</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="70" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
-        <v>2</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="13">
-        <v>20000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="28" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A24" s="24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="26">
+    <row r="28" ht="28.5" spans="1:6">
+      <c r="A28" s="9">
+        <v>8</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="17">
+        <v>30000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" ref="F28:F33" si="1">D28*E28</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="29" ht="42.75" spans="1:7">
+      <c r="A29" s="9">
+        <v>9</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="17">
         <v>20000</v>
       </c>
-      <c r="E24" s="27">
-        <v>1</v>
-      </c>
-      <c r="F24" s="26">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="84" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
-        <v>5</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="13">
-        <v>30000</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="56" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
-        <v>6</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="98" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
-        <v>7</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="13">
-        <v>10000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
-        <v>8</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="13">
-        <v>20000</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13">
-        <f t="shared" ref="F28:F33" si="1">D28*E28</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="42" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>9</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="13">
-        <v>20000</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="G29" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="70" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
+      <c r="G29" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" ht="71.25" spans="1:7">
+      <c r="A30" s="9">
         <v>10</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="B30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="17">
         <v>30000</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="13">
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="70" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
+      <c r="G30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" ht="71.25" spans="1:6">
+      <c r="A31" s="9">
         <v>11</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="B31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="17">
         <v>20000</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13">
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="56" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
+    <row r="32" ht="57" spans="1:6">
+      <c r="A32" s="9">
         <v>12</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="B32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="17">
         <v>20000</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13">
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
+    <row r="33" ht="28.5" spans="1:6">
+      <c r="A33" s="9">
         <v>13</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="B33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="17">
         <v>20000</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13">
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="28" customFormat="1" ht="56" x14ac:dyDescent="0.15">
-      <c r="A34" s="24">
+    <row r="34" s="1" customFormat="1" ht="57" spans="1:6">
+      <c r="A34" s="21">
         <v>14</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="26">
+      <c r="B34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="23">
         <v>10000</v>
       </c>
-      <c r="E34" s="27">
-        <v>1</v>
-      </c>
-      <c r="F34" s="26">
+      <c r="E34" s="24">
+        <v>1</v>
+      </c>
+      <c r="F34" s="23">
         <f t="shared" ref="F34:F40" si="2">D34*E34</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="28" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A35" s="24">
+    <row r="35" s="1" customFormat="1" ht="42.75" spans="1:6">
+      <c r="A35" s="21">
         <v>15</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="26">
+      <c r="B35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="23">
         <v>10000</v>
       </c>
-      <c r="E35" s="27">
-        <v>1</v>
-      </c>
-      <c r="F35" s="26">
+      <c r="E35" s="24">
+        <v>1</v>
+      </c>
+      <c r="F35" s="23">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
+    <row r="36" ht="28.5" spans="1:6">
+      <c r="A36" s="9">
         <v>16</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="13">
+      <c r="B36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="17">
         <v>5000</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="13">
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24">
+    <row r="37" s="1" customFormat="1" spans="1:6">
+      <c r="A37" s="21">
         <v>17</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="26">
+      <c r="B37" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="23">
         <v>10000</v>
       </c>
-      <c r="E37" s="27">
-        <v>1</v>
-      </c>
-      <c r="F37" s="26">
+      <c r="E37" s="24">
+        <v>1</v>
+      </c>
+      <c r="F37" s="23">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
+    <row r="38" ht="14.25" spans="1:6">
+      <c r="A38" s="9">
         <v>18</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="13">
+      <c r="B38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="17">
         <v>30000</v>
       </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="13">
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
+    <row r="39" ht="14.25" spans="1:6">
+      <c r="A39" s="9">
         <v>19</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="B39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="17">
         <v>5000</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13">
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
+    <row r="40" ht="28.5" spans="1:6">
+      <c r="A40" s="9">
         <v>20</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="B40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="17">
         <v>20000</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13">
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="24">
+    <row r="41" s="1" customFormat="1" spans="1:6">
+      <c r="A41" s="21">
         <v>21</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="26"/>
-    </row>
-    <row r="42" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="11" t="s">
+      <c r="B41" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" ht="23" customHeight="1" spans="1:6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="15">
         <f>SUM(F21:F40)</f>
-        <v>340000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="19">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:6">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="28">
         <f>F11+F18+F42</f>
-        <v>550000</v>
+        <v>630000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>